--- a/biology/Zoologie/Cormoran_pie/Cormoran_pie.xlsx
+++ b/biology/Zoologie/Cormoran_pie/Cormoran_pie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microcarbo melanoleucos
 Le Cormoran pie (Microcarbo melanoleucos) est une espèce d'oiseau de mer endémique d'Australasie et Malaisie.
@@ -512,11 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit sur les côtes, les îles, les estuaires et les eaux intérieures de l'Australie, la Nouvelle-Guinée, la Nouvelle-Zélande,la Nouvelle-Calédonie,la Malaisie et l'Indonésie et dans les îles du sud-ouest de l'océan Pacifique et dans les zones sub-antarctiques.
-Habitat
-Cette espèce ce rencontre dans les marécages, lacs, lagunes, mangroves, les iles et estuaires de son aire de répartition.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il s'agit d'un petit cormoran à bec court généralement noir sur le dessus et blanc sur le dessous avec un petit bec jaune et une petite crête, bien que la forme noire avec la gorge blanche prédomine en Nouvelle-Zélande. La queue est formée de quelques longues plumes noires.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ce rencontre dans les marécages, lacs, lagunes, mangroves, les iles et estuaires de son aire de répartition.
 </t>
         </is>
       </c>
@@ -573,12 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alimentation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme beaucoup de cormoran cette espèce est une très bonne chasseuse de poissons et autres crustacés.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un petit cormoran à bec court généralement noir sur le dessus et blanc sur le dessous avec un petit bec jaune et une petite crête, bien que la forme noire avec la gorge blanche prédomine en Nouvelle-Zélande. La queue est formée de quelques longues plumes noires.
 </t>
         </is>
       </c>
@@ -604,12 +624,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle cormoran-pie pond entre 3 et 5 œufs par ponte.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme beaucoup de cormoran cette espèce est une très bonne chasseuse de poissons et autres crustacés.
 </t>
         </is>
       </c>
@@ -635,10 +657,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle cormoran-pie pond entre 3 et 5 œufs par ponte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cormoran_pie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cormoran_pie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>On en connaît trois sous-espèces :
 Microcarbo melanoleucos melanoleucos ;
